--- a/data/trans_orig/P21D5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D5_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>243287</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>234706</v>
+        <v>234565</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>248271</v>
+        <v>248337</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9591265050210026</v>
+        <v>0.9591265050210028</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9252956339263994</v>
+        <v>0.9247394191780399</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9787745774217724</v>
+        <v>0.9790327831692557</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>587</v>
@@ -762,19 +762,19 @@
         <v>336023</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>327646</v>
+        <v>327004</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>343126</v>
+        <v>342567</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9287395330297521</v>
+        <v>0.9287395330297524</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9055883894537573</v>
+        <v>0.9038120484100676</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9483733632196352</v>
+        <v>0.9468274293948197</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>876</v>
@@ -783,19 +783,19 @@
         <v>579310</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>567354</v>
+        <v>567862</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>588300</v>
+        <v>587537</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9412631938544359</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9218367538740017</v>
+        <v>0.922663278892925</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9558703323133221</v>
+        <v>0.9546300063215472</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>8845</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3914</v>
+        <v>4110</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17851</v>
+        <v>17827</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.03486866275031504</v>
+        <v>0.03486866275031505</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01543141978182285</v>
+        <v>0.01620192684428603</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07037680900672533</v>
+        <v>0.0702802896594916</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>32</v>
@@ -833,19 +833,19 @@
         <v>18477</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12801</v>
+        <v>13296</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25409</v>
+        <v>25682</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.05106937821023448</v>
+        <v>0.05106937821023449</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03538060472370155</v>
+        <v>0.03674903285954868</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07022883339566487</v>
+        <v>0.07098287517019214</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>41</v>
@@ -854,19 +854,19 @@
         <v>27322</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19474</v>
+        <v>20438</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38156</v>
+        <v>38685</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04439242910205547</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03164179429401732</v>
+        <v>0.03320715138047103</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06199618873732973</v>
+        <v>0.06285476788256612</v>
       </c>
     </row>
     <row r="6">
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2982</v>
+        <v>3240</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002083229942543837</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01175429685641811</v>
+        <v>0.01277450803713651</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -904,19 +904,19 @@
         <v>5407</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2346</v>
+        <v>2444</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9900</v>
+        <v>10838</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01494446885717677</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.006484268729474517</v>
+        <v>0.006754379358615258</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02736231560100422</v>
+        <v>0.02995643950219692</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -925,19 +925,19 @@
         <v>5935</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2763</v>
+        <v>2729</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11107</v>
+        <v>11737</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.009643848775700282</v>
+        <v>0.009643848775700284</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.004488750505263279</v>
+        <v>0.004433546845492731</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01804735747830115</v>
+        <v>0.01906997493012613</v>
       </c>
     </row>
     <row r="7">
@@ -957,16 +957,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5427</v>
+        <v>5067</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.003921602286138397</v>
+        <v>0.003921602286138398</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02139701264516332</v>
+        <v>0.01997436225735925</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -978,16 +978,16 @@
         <v>385</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5370</v>
+        <v>5729</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.005246619902836556</v>
+        <v>0.005246619902836557</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001062752187658779</v>
+        <v>0.001062932277528566</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01484310194835645</v>
+        <v>0.01583494316121004</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -996,19 +996,19 @@
         <v>2893</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>826</v>
+        <v>713</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7228</v>
+        <v>7288</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004700528267808344</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001342568457163444</v>
+        <v>0.001159001838261206</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0117446789989708</v>
+        <v>0.01184106563865961</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>916641</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>899503</v>
+        <v>901284</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>928718</v>
+        <v>929941</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.9564746421674848</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9385916471310113</v>
+        <v>0.9404497153211121</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.969076199888545</v>
+        <v>0.9703524345514403</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1210</v>
@@ -1121,19 +1121,19 @@
         <v>929913</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>915406</v>
+        <v>914099</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>940769</v>
+        <v>940122</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.9435769779619615</v>
+        <v>0.9435769779619616</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.928856995128362</v>
+        <v>0.9275310174866548</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9545921574355007</v>
+        <v>0.9539356342881654</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2006</v>
@@ -1142,19 +1142,19 @@
         <v>1846554</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1824446</v>
+        <v>1826916</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1863529</v>
+        <v>1865888</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9499356923628504</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.9385623906012484</v>
+        <v>0.9398329362932504</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9586680851343188</v>
+        <v>0.9598816018913163</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>36326</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24916</v>
+        <v>23546</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52083</v>
+        <v>52930</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03790419240714242</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02599913715826953</v>
+        <v>0.02456950692296406</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05434601102917104</v>
+        <v>0.05522965167153828</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>66</v>
@@ -1192,19 +1192,19 @@
         <v>45770</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35837</v>
+        <v>35874</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60574</v>
+        <v>60048</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04644271169534273</v>
+        <v>0.04644271169534272</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03636322832536484</v>
+        <v>0.03640115932676003</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06146388482003731</v>
+        <v>0.06092985633275649</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>97</v>
@@ -1213,19 +1213,19 @@
         <v>82096</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>66215</v>
+        <v>63914</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>102616</v>
+        <v>101127</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0422331118255543</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03406366202171581</v>
+        <v>0.03287979366284392</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05278954920771742</v>
+        <v>0.05202351374069727</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>4728</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1645</v>
+        <v>1666</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11080</v>
+        <v>11002</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004932999992829617</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001716043241521645</v>
+        <v>0.00173789955290144</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01156134359083309</v>
+        <v>0.011479850802872</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -1263,19 +1263,19 @@
         <v>5747</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2747</v>
+        <v>2717</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10283</v>
+        <v>10601</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.005831687861270008</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002787219734082677</v>
+        <v>0.002756938011011781</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01043426254721988</v>
+        <v>0.01075663257819572</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -1284,19 +1284,19 @@
         <v>10475</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5471</v>
+        <v>6008</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>17773</v>
+        <v>18381</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005388623179177514</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002814542257543228</v>
+        <v>0.003090571034547201</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.00914288066643818</v>
+        <v>0.009455647238411337</v>
       </c>
     </row>
     <row r="12">
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3728</v>
+        <v>3329</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0006881654325431163</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.003889795938200676</v>
+        <v>0.003473404777222691</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -1334,19 +1334,19 @@
         <v>4089</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1631</v>
+        <v>1830</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8709</v>
+        <v>8597</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.00414862248142564</v>
+        <v>0.004148622481425639</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.001654734328129775</v>
+        <v>0.001857311349401023</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.008836479821584278</v>
+        <v>0.008723582760000162</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -1355,19 +1355,19 @@
         <v>4748</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1937</v>
+        <v>2144</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10207</v>
+        <v>10422</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.002442572632417845</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0009966858652463355</v>
+        <v>0.001102839132391753</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.005250877416495375</v>
+        <v>0.005361586201299287</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>319987</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>305579</v>
+        <v>306838</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>329369</v>
+        <v>330097</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.921598726543939</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8800996604643856</v>
+        <v>0.883727805867652</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.948618773125566</v>
+        <v>0.9507148304789407</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>425</v>
@@ -1480,19 +1480,19 @@
         <v>327343</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>316941</v>
+        <v>317321</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>333483</v>
+        <v>333670</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9564724119245096</v>
+        <v>0.9564724119245094</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.926077428944679</v>
+        <v>0.9271871235585671</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9744125218401892</v>
+        <v>0.9749579935118818</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>720</v>
@@ -1501,19 +1501,19 @@
         <v>647330</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>631034</v>
+        <v>631356</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>659556</v>
+        <v>659072</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9389098922738367</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9152743656340989</v>
+        <v>0.9157419656829255</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9566442785172442</v>
+        <v>0.9559409439053536</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>20574</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11901</v>
+        <v>12038</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>34430</v>
+        <v>34128</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05925665854554747</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03427684276204836</v>
+        <v>0.03467189239117166</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09916351799861178</v>
+        <v>0.09829314133226981</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>14</v>
@@ -1551,19 +1551,19 @@
         <v>10209</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>5787</v>
+        <v>5911</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>17785</v>
+        <v>18382</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02983049180451969</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01690943657438927</v>
+        <v>0.01727043216666866</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.05196657968294766</v>
+        <v>0.05371138472000672</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>31</v>
@@ -1572,19 +1572,19 @@
         <v>30784</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>20781</v>
+        <v>20957</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>46565</v>
+        <v>45118</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04464962049692921</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03014104663061129</v>
+        <v>0.03039697775546956</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06753910605144922</v>
+        <v>0.06544063675798116</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>4917</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1425</v>
+        <v>1247</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12971</v>
+        <v>13142</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01416044785720197</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004103764543971926</v>
+        <v>0.003590564620839128</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03735720484335096</v>
+        <v>0.03785076403196533</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1622,19 +1622,19 @@
         <v>3995</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15261</v>
+        <v>16647</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01167396945573326</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00194437857352607</v>
+        <v>0.001935024480346176</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04459065851174852</v>
+        <v>0.04864233219459162</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1643,19 +1643,19 @@
         <v>8912</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3843</v>
+        <v>4055</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20539</v>
+        <v>18553</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01292616936836702</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005573490581673673</v>
+        <v>0.00588201700752764</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02979090587762765</v>
+        <v>0.02691058059126131</v>
       </c>
     </row>
     <row r="17">
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6786</v>
+        <v>5973</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.004984167053311537</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01954499624931825</v>
+        <v>0.01720235800282807</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3531</v>
+        <v>3488</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.002023126815237526</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0103181450155327</v>
+        <v>0.01019060116444763</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -1714,19 +1714,19 @@
         <v>2423</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7249</v>
+        <v>7391</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.003514317860867042</v>
+        <v>0.003514317860867041</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.000861753060340819</v>
+        <v>0.0008485696065086535</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01051364084103875</v>
+        <v>0.0107198618802386</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>1479916</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1456664</v>
+        <v>1457869</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1497886</v>
+        <v>1498398</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9491398335150616</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9342270005448106</v>
+        <v>0.9349998667863283</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9606649172297561</v>
+        <v>0.9609930634246603</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2222</v>
@@ -1839,19 +1839,19 @@
         <v>1593278</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1576204</v>
+        <v>1576064</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1608287</v>
+        <v>1608812</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9430117847014509</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9329064561686907</v>
+        <v>0.9328235950438285</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9518953218782271</v>
+        <v>0.9522061815900169</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3602</v>
@@ -1860,19 +1860,19 @@
         <v>3073194</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3045688</v>
+        <v>3046436</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>3097603</v>
+        <v>3096664</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9459528771410025</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.937486449914097</v>
+        <v>0.9377166339874925</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9534662181612185</v>
+        <v>0.9531771244487027</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>65745</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>49462</v>
+        <v>48444</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>87163</v>
+        <v>86165</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04216516571771092</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03172207383077801</v>
+        <v>0.0310696702909257</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05590163344266071</v>
+        <v>0.05526194228096276</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>112</v>
@@ -1910,19 +1910,19 @@
         <v>74456</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>61392</v>
+        <v>61551</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>90682</v>
+        <v>90434</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04406848238274991</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03633627986934453</v>
+        <v>0.03643021747770355</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0536716093884945</v>
+        <v>0.05352493372766216</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>169</v>
@@ -1931,19 +1931,19 @@
         <v>140201</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>119719</v>
+        <v>120003</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>166950</v>
+        <v>165637</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04315500560998239</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03685058055155634</v>
+        <v>0.03693781682911098</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05138852469291678</v>
+        <v>0.05098447235797982</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>10173</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4892</v>
+        <v>5123</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19465</v>
+        <v>18853</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.00652417734018707</v>
+        <v>0.006524177340187071</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.003137251216222431</v>
+        <v>0.00328584782708936</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0124840320006331</v>
+        <v>0.01209144687028556</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>20</v>
@@ -1981,19 +1981,19 @@
         <v>15150</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9427</v>
+        <v>9425</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>24590</v>
+        <v>25064</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.008966526738125435</v>
+        <v>0.008966526738125433</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.005579541909041052</v>
+        <v>0.00557831601067935</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0145540855303736</v>
+        <v>0.0148344627997664</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>30</v>
@@ -2002,19 +2002,19 @@
         <v>25322</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>17348</v>
+        <v>16925</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>38051</v>
+        <v>37513</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.007794346886511659</v>
+        <v>0.00779434688651166</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.005340001093967975</v>
+        <v>0.005209624373818593</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0117123942870034</v>
+        <v>0.01154671019011739</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>3385</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1116</v>
+        <v>659</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8636</v>
+        <v>8548</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002170823427040511</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0007159678967410538</v>
+        <v>0.0004228142830289597</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.005538780582060952</v>
+        <v>0.005482134881839971</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2052,19 +2052,19 @@
         <v>6679</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3405</v>
+        <v>3471</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12599</v>
+        <v>12315</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003953206177673758</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00201519255050735</v>
+        <v>0.002054313703286098</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.00745718262043121</v>
+        <v>0.007288606407083479</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -2073,19 +2073,19 @@
         <v>10064</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5708</v>
+        <v>5562</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>16675</v>
+        <v>17025</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.003097770362503403</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001757065302724023</v>
+        <v>0.001711922371854696</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.005132667377748248</v>
+        <v>0.005240502296204624</v>
       </c>
     </row>
     <row r="23">
